--- a/src/seeders/files/xlsx/majors.xlsx
+++ b/src/seeders/files/xlsx/majors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phinc\Documents\projects\phincon\personal_project\Project-Akreditasi\src\seeders\files\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\Project-Akreditasi\src\seeders\files\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33129637-1F8E-4127-95B1-2B54EC28BF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119D5373-39F6-4D80-AD2C-F2DD96B7E847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="68">
   <si>
     <t>level</t>
   </si>
@@ -190,6 +190,45 @@
   </si>
   <si>
     <t>S3</t>
+  </si>
+  <si>
+    <t>FBK</t>
+  </si>
+  <si>
+    <t>FIKF</t>
+  </si>
+  <si>
+    <t>FTI_DIPLOMA</t>
+  </si>
+  <si>
+    <t>PROFESI</t>
+  </si>
+  <si>
+    <t>FTI</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>FTSP</t>
+  </si>
+  <si>
+    <t>FIKOM</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>FSB</t>
+  </si>
+  <si>
+    <t>FPSI</t>
+  </si>
+  <si>
+    <t>FIKTI</t>
+  </si>
+  <si>
+    <t>MAGISTER</t>
   </si>
 </sst>
 </file>
@@ -532,20 +571,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -576,12 +615,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2">
         <v>62401</v>
@@ -593,12 +632,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2">
         <v>15401</v>
@@ -610,12 +649,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2">
         <v>57401</v>
@@ -627,12 +666,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2">
         <v>61406</v>
@@ -644,12 +683,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2">
         <v>61404</v>
@@ -661,12 +700,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2">
         <v>56401</v>
@@ -678,12 +717,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2">
         <v>15901</v>
@@ -695,12 +734,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2">
         <v>11901</v>
@@ -712,12 +751,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2">
         <v>73901</v>
@@ -729,12 +768,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2">
         <v>54211</v>
@@ -746,12 +785,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2">
         <v>62201</v>
@@ -763,12 +802,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2">
         <v>62208</v>
@@ -780,12 +819,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2">
         <v>23201</v>
@@ -797,12 +836,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2">
         <v>23202</v>
@@ -814,12 +853,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2">
         <v>90221</v>
@@ -831,12 +870,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2">
         <v>60202</v>
@@ -848,12 +887,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2">
         <v>48201</v>
@@ -865,12 +904,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2">
         <v>70201</v>
@@ -882,12 +921,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C21" s="2">
         <v>70206</v>
@@ -899,12 +938,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2">
         <v>55201</v>
@@ -916,12 +955,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2">
         <v>55210</v>
@@ -933,12 +972,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2">
         <v>15201</v>
@@ -950,12 +989,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2">
         <v>11201</v>
@@ -967,12 +1006,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2">
         <v>61201</v>
@@ -984,12 +1023,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2">
         <v>61217</v>
@@ -1001,12 +1040,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2">
         <v>93202</v>
@@ -1018,12 +1057,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2">
         <v>73201</v>
@@ -1035,12 +1074,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2">
         <v>73203</v>
@@ -1052,12 +1091,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2">
         <v>79202</v>
@@ -1069,12 +1108,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2">
         <v>79209</v>
@@ -1086,12 +1125,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2">
         <v>57201</v>
@@ -1103,12 +1142,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="C34" s="2">
         <v>57208</v>
@@ -1120,12 +1159,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="C35" s="2">
         <v>56201</v>
@@ -1137,12 +1176,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="C36" s="2">
         <v>20201</v>
@@ -1154,12 +1193,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="C37" s="2">
         <v>26201</v>
@@ -1171,12 +1210,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="C38" s="2">
         <v>21201</v>
@@ -1188,12 +1227,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C39" s="2">
         <v>22201</v>
@@ -1205,12 +1244,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C40" s="2">
         <v>22204</v>
@@ -1222,12 +1261,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="C41" s="2">
         <v>23101</v>
@@ -1239,12 +1278,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="C42" s="2">
         <v>70101</v>
@@ -1256,12 +1295,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="C43" s="2">
         <v>61101</v>
@@ -1273,12 +1312,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="C44" s="2">
         <v>57101</v>
@@ -1290,12 +1329,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="C45" s="2">
         <v>73101</v>
@@ -1307,12 +1346,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="C46" s="2">
         <v>73103</v>
@@ -1324,12 +1363,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="C47" s="2">
         <v>79102</v>
@@ -1341,12 +1380,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="C48" s="2">
         <v>20101</v>
@@ -1358,12 +1397,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="C49" s="2">
         <v>26101</v>
@@ -1375,12 +1414,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2">
         <v>21101</v>
@@ -1392,12 +1431,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="C51" s="2">
         <v>22101</v>
@@ -1409,12 +1448,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2">
         <v>60001</v>
@@ -1426,12 +1465,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2">
         <v>55001</v>
@@ -1443,12 +1482,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2">
         <v>70001</v>
@@ -1460,12 +1499,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2">
         <v>73001</v>
@@ -1477,12 +1516,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C56" s="2">
         <v>55002</v>
